--- a/reports/2025/inventory_2025-08.xlsx
+++ b/reports/2025/inventory_2025-08.xlsx
@@ -626,12 +626,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P055</t>
+          <t>P-0155</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-936534850</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-797686298-salsa-para-alitas-sabor-mezcal-38l-inigualabe-e-innovadora-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -674,12 +674,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P-0155</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-tamarindo-en-galon-38l/p/MLM16595091?pdp_filters=seller_id:206710930#searchVariation=MLM16595091&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-893622220-salsa-sabor-mezcal-38lt-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,12 +722,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P093</t>
+          <t>P055</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756586369-salsa-lemon-pepper-para-alitas-38-l-al-mejor-precio-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-936534850</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -770,12 +770,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755933726-salsa-ajo-parmesano-38-lts-para-alitas-al-mejor-precio-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755923056-salsa-picante-buffalo-para-alitas-38-l-al-mejor-precio-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -818,12 +818,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-770206770-salsa-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825377787-salsa-bufalo-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -866,12 +866,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P070</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756568095-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756574513-sazonador-cajun-en-polvo-bote-650g-al-mejor-precio-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -914,12 +914,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P-0155</t>
+          <t>P071</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-797686298-salsa-para-alitas-sabor-mezcal-38l-inigualabe-e-innovadora-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756582654-salsa-picante-original-h-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -962,12 +962,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P078</t>
+          <t>P073</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756571227-salsa-teriyaki-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755952625-salsa-honey-mustard-mostaza-dulce-38-l-al-mejor-precio-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P073</t>
+          <t>P074</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755952625-salsa-honey-mustard-mostaza-dulce-38-l-al-mejor-precio-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874460232-salsa-para-alitas-crema-de-habanero-38lts-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1058,12 +1058,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P089</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756586580-sazonador-lemon-pepper-en-polvo-bote-800g-al-mejor-precio-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755926452-salsa-picante-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P069</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755923056-salsa-picante-buffalo-para-alitas-38-l-al-mejor-precio-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825295407-salsa-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1154,12 +1154,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P075</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755926452-salsa-picante-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755917563-salsa-picante-para-alitas-bbq-chipotle-38l-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1202,12 +1202,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P086</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756582084-salsa-naranja-chipotle-para-alitas-38-l-al-mejor-precio-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-868471591-salsa-bbq-chipotle-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1250,12 +1250,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P076</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755917563-salsa-picante-para-alitas-bbq-chipotle-38l-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755923937-salsa-mango-habanero-para-alitas-38-l-al-mejor-precio-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1346,12 +1346,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P083</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755921589-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874397634-salsa-mango-habanero-42kg-para-alitas-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1394,12 +1394,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P081</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756571010-salsa-picante-bbq-barbecue-habanero-para-alitas-38-l-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904247331-salsa-para-alitas-mango-habanero-23-kg-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1442,12 +1442,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P085</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756567270-salsa-picante-cajun-para-alitas-38-l-al-mejor-precio-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756571227-salsa-teriyaki-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1490,12 +1490,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P137</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-848013478-salsa-de-guacamole-para-alitas-38-l-al-mejor-precio-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-814451280-salsa-teriyaki-38-lts-para-alitas-al-mejor-precio-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1538,12 +1538,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P084</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756567694-sazonador-fuego-en-polvo-bote-800g-al-mejor-precio-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755920242-salsa-picante-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1586,12 +1586,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P070</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756574513-sazonador-cajun-en-polvo-bote-650g-al-mejor-precio-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-770206770-salsa-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1634,12 +1634,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755923937-salsa-mango-habanero-para-alitas-38-l-al-mejor-precio-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-788982442-salsa-bbq-barbecue-38l-para-alitas-mr-wings-al-mejor-precio-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1682,12 +1682,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755920242-salsa-picante-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756568095-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1730,12 +1730,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P086</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-868064080-salsa-naranja-chipotle-38-lt-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874583274-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1778,12 +1778,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P078</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-814451280-salsa-teriyaki-38-lts-para-alitas-al-mejor-precio-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://www.mercadolibre.com.mx/mr-wings-tamarindo-en-galon-38l/p/MLM16595091?pdp_filters=seller_id:206710930#searchVariation=MLM16595091&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1826,12 +1826,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P075</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825295407-salsa-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756571010-salsa-picante-bbq-barbecue-habanero-para-alitas-38-l-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1874,12 +1874,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-788982442-salsa-bbq-barbecue-38l-para-alitas-mr-wings-al-mejor-precio-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-875617343-salsa-bbq-habanero-para-para-alitas-38-l-al-mejor-precio-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P093</t>
+          <t>P082</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-799001903-salsa-lemon-pepper-para-alitas-1-galon-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755930111-sazonador-lemon-pepper-hot-polvo-bote-800g-al-mejor-precio-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1970,12 +1970,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755921589-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2018,12 +2018,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-923131178-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2066,12 +2066,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P069</t>
+          <t>P084</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825377787-salsa-bufalo-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756567694-sazonador-fuego-en-polvo-bote-800g-al-mejor-precio-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2114,12 +2114,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-865372434-salsa-ajo-parmesano-para-alitas-38-l-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756567270-salsa-picante-cajun-para-alitas-38-l-al-mejor-precio-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2162,12 +2162,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P071</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756582654-salsa-picante-original-h-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-875618411-salsa-cajun-para-alitas-378-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2210,12 +2210,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874583274-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756582084-salsa-naranja-chipotle-para-alitas-38-l-al-mejor-precio-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P076</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-868471591-salsa-bbq-chipotle-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-868064080-salsa-naranja-chipotle-38-lt-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2306,12 +2306,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P088</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755917478-sazonador-chedar-en-polvo-800g-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2354,12 +2354,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P089</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756586580-sazonador-lemon-pepper-en-polvo-bote-800g-al-mejor-precio-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2402,12 +2402,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P074</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874460232-salsa-para-alitas-crema-de-habanero-38lts-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756586369-salsa-lemon-pepper-para-alitas-38-l-al-mejor-precio-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2450,12 +2450,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874397634-salsa-mango-habanero-42kg-para-alitas-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-799001903-salsa-lemon-pepper-para-alitas-1-galon-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2498,12 +2498,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>P083</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-923131178-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755933726-salsa-ajo-parmesano-38-lts-para-alitas-al-mejor-precio-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2546,12 +2546,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>P-0155</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-893622220-salsa-sabor-mezcal-38lt-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-865372434-salsa-ajo-parmesano-para-alitas-38-l-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2594,12 +2594,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>P088</t>
+          <t>P137</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755917478-sazonador-chedar-en-polvo-800g-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-848013478-salsa-de-guacamole-para-alitas-38-l-al-mejor-precio-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2642,17 +2642,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>P081</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-875617343-salsa-bbq-habanero-para-para-alitas-38-l-al-mejor-precio-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mr Wings</t>
+          <t>Sazonador</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2690,17 +2690,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P085</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-875618411-salsa-cajun-para-alitas-378-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mr Wings</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2738,17 +2738,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>P082</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755930111-sazonador-lemon-pepper-hot-polvo-bote-800g-al-mejor-precio-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mr Wings</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2786,17 +2786,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904247331-salsa-para-alitas-mango-habanero-23-kg-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mr Wings</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2834,17 +2834,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -2882,17 +2882,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2930,17 +2930,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Sin azúcar</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -2978,17 +2978,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Sin azúcar</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3026,17 +3026,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Ingredientes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3074,17 +3074,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Sriracha</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3122,17 +3122,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Sriracha</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3170,17 +3170,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3218,17 +3218,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Crema de cacahate</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3266,17 +3266,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Sriracha</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3314,17 +3314,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>La Duena</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3362,17 +3362,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -3410,17 +3410,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>La Duena</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -3458,17 +3458,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -3506,17 +3506,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Abal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -3554,17 +3554,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Keto</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -3602,17 +3602,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -3650,17 +3650,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Abal</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -3698,17 +3698,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Abal</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -3746,17 +3746,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -3794,17 +3794,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -3842,17 +3842,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -3890,17 +3890,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -3938,17 +3938,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -3986,17 +3986,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sin azúcar</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -4034,17 +4034,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -4082,17 +4082,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sazonador</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -4130,17 +4130,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Crema de cacahate</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -4178,17 +4178,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -4226,17 +4226,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Keto</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -4274,17 +4274,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Custom Culinary</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -4322,17 +4322,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sin azúcar</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -4370,17 +4370,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sin azúcar</t>
+          <t>Crema de cacahate</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -4418,12 +4418,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
+          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
+          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4466,17 +4466,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
+          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
+          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ingredientes</t>
+          <t>Sin azúcar</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -4514,17 +4514,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
+          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
+          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Crema de cacahate</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -4562,12 +4562,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
+          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
+          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4610,17 +4610,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
+          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
+          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mr Wings</t>
+          <t>Abal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>

--- a/reports/2025/inventory_2025-08.xlsx
+++ b/reports/2025/inventory_2025-08.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +631,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-797686298-salsa-para-alitas-sabor-mezcal-38l-inigualabe-e-innovadora-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-797686298-salsa-para-alitas-sabor-mezcal-38l-inigualabe-e-innovadora-_JM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-893622220-salsa-sabor-mezcal-38lt-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-797686298-salsa-para-alitas-sabor-mezcal-38l-inigualabe-e-innovadora-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,12 +722,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P055</t>
+          <t>P-0155</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-936534850</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-893622220-salsa-sabor-mezcal-38lt-_JM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -770,12 +770,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P069</t>
+          <t>P-0155</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755923056-salsa-picante-buffalo-para-alitas-38-l-al-mejor-precio-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-893622220-salsa-sabor-mezcal-38lt-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -818,12 +818,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P069</t>
+          <t>P055</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825377787-salsa-bufalo-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-936534850</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -866,12 +866,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P070</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756574513-sazonador-cajun-en-polvo-bote-650g-al-mejor-precio-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755923056-salsa-picante-buffalo-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -914,12 +914,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P071</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756582654-salsa-picante-original-h-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755923056-salsa-picante-buffalo-para-alitas-38-l-al-mejor-precio-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -962,12 +962,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P073</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755952625-salsa-honey-mustard-mostaza-dulce-38-l-al-mejor-precio-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825377787-salsa-bufalo-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P074</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874460232-salsa-para-alitas-crema-de-habanero-38lts-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825377787-salsa-bufalo-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1058,12 +1058,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P075</t>
+          <t>P070</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755926452-salsa-picante-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756574513-sazonador-cajun-en-polvo-bote-650g-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P075</t>
+          <t>P070</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825295407-salsa-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756574513-sazonador-cajun-en-polvo-bote-650g-al-mejor-precio-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1154,12 +1154,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P076</t>
+          <t>P071</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755917563-salsa-picante-para-alitas-bbq-chipotle-38l-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756582654-salsa-picante-original-h-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1202,12 +1202,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P076</t>
+          <t>P071</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-868471591-salsa-bbq-chipotle-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756582654-salsa-picante-original-h-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1250,12 +1250,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P073</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755923937-salsa-mango-habanero-para-alitas-38-l-al-mejor-precio-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755952625-salsa-honey-mustard-mostaza-dulce-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1298,12 +1298,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P073</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-816053168-salsa-mango-habanero-para-alitas-42-kg-al-mejor-precio-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755952625-salsa-honey-mustard-mostaza-dulce-38-l-al-mejor-precio-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1346,12 +1346,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P074</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874397634-salsa-mango-habanero-42kg-para-alitas-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874460232-salsa-para-alitas-crema-de-habanero-38lts-_JM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1394,12 +1394,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P074</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904247331-salsa-para-alitas-mango-habanero-23-kg-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874460232-salsa-para-alitas-crema-de-habanero-38lts-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1442,12 +1442,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P078</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756571227-salsa-teriyaki-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755926452-salsa-picante-pina-hot-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1490,12 +1490,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P078</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-814451280-salsa-teriyaki-38-lts-para-alitas-al-mejor-precio-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755926452-salsa-picante-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1538,12 +1538,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755920242-salsa-picante-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825295407-salsa-pina-hot-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1586,12 +1586,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-770206770-salsa-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825295407-salsa-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1634,12 +1634,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-788982442-salsa-bbq-barbecue-38l-para-alitas-mr-wings-al-mejor-precio-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755917563-salsa-picante-para-alitas-bbq-chipotle-38l-_JM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1682,12 +1682,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756568095-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755917563-salsa-picante-para-alitas-bbq-chipotle-38l-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1730,12 +1730,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874583274-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-868471591-salsa-bbq-chipotle-_JM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1778,12 +1778,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-tamarindo-en-galon-38l/p/MLM16595091?pdp_filters=seller_id:206710930#searchVariation=MLM16595091&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-868471591-salsa-bbq-chipotle-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1826,12 +1826,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P081</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756571010-salsa-picante-bbq-barbecue-habanero-para-alitas-38-l-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755923937-salsa-mango-habanero-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1874,12 +1874,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P081</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-875617343-salsa-bbq-habanero-para-para-alitas-38-l-al-mejor-precio-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755923937-salsa-mango-habanero-para-alitas-38-l-al-mejor-precio-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P082</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755930111-sazonador-lemon-pepper-hot-polvo-bote-800g-al-mejor-precio-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-816053168-salsa-mango-habanero-para-alitas-42-kg-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1970,12 +1970,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P083</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755921589-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-816053168-salsa-mango-habanero-para-alitas-42-kg-al-mejor-precio-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2018,12 +2018,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P083</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-923131178-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874397634-salsa-mango-habanero-42kg-para-alitas-_JM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2066,12 +2066,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P084</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756567694-sazonador-fuego-en-polvo-bote-800g-al-mejor-precio-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874397634-salsa-mango-habanero-42kg-para-alitas-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2114,12 +2114,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P085</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756567270-salsa-picante-cajun-para-alitas-38-l-al-mejor-precio-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904247331-salsa-para-alitas-mango-habanero-23-kg-_JM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2162,12 +2162,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P085</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-875618411-salsa-cajun-para-alitas-378-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904247331-salsa-para-alitas-mango-habanero-23-kg-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2210,12 +2210,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P086</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756582084-salsa-naranja-chipotle-para-alitas-38-l-al-mejor-precio-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756571227-salsa-teriyaki-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P086</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-868064080-salsa-naranja-chipotle-38-lt-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756571227-salsa-teriyaki-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2306,12 +2306,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>P088</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755917478-sazonador-chedar-en-polvo-800g-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-814451280-salsa-teriyaki-38-lts-para-alitas-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2354,12 +2354,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>P089</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756586580-sazonador-lemon-pepper-en-polvo-bote-800g-al-mejor-precio-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-814451280-salsa-teriyaki-38-lts-para-alitas-al-mejor-precio-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2402,12 +2402,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P093</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756586369-salsa-lemon-pepper-para-alitas-38-l-al-mejor-precio-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755920242-salsa-picante-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2450,12 +2450,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P093</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-799001903-salsa-lemon-pepper-para-alitas-1-galon-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755920242-salsa-picante-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2498,12 +2498,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755933726-salsa-ajo-parmesano-38-lts-para-alitas-al-mejor-precio-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-770206770-salsa-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2546,12 +2546,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-865372434-salsa-ajo-parmesano-para-alitas-38-l-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-770206770-salsa-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2594,12 +2594,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>P137</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-848013478-salsa-de-guacamole-para-alitas-38-l-al-mejor-precio-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-788982442-salsa-bbq-barbecue-38l-para-alitas-mr-wings-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2642,17 +2642,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-788982442-salsa-bbq-barbecue-38l-para-alitas-mr-wings-al-mejor-precio-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sazonador</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2690,17 +2690,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756568095-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2738,17 +2738,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756568095-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2786,17 +2786,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874583274-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2834,17 +2834,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874583274-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -2882,17 +2882,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
+          <t>https://www.mercadolibre.com.mx/mr-wings-tamarindo-en-galon-38l/p/MLM16595091</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2930,17 +2930,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
+          <t>https://www.mercadolibre.com.mx/mr-wings-tamarindo-en-galon-38l/p/MLM16595091?pdp_filters=seller_id:206710930#searchVariation=MLM16595091&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sin azúcar</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -2978,17 +2978,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756571010-salsa-picante-bbq-barbecue-habanero-para-alitas-38-l-_JM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sin azúcar</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3026,17 +3026,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756571010-salsa-picante-bbq-barbecue-habanero-para-alitas-38-l-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ingredientes</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3074,17 +3074,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-875617343-salsa-bbq-habanero-para-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3122,17 +3122,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-875617343-salsa-bbq-habanero-para-para-alitas-38-l-al-mejor-precio-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3170,17 +3170,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
+          <t>P082</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755930111-sazonador-lemon-pepper-hot-polvo-bote-800g-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3218,17 +3218,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
+          <t>P082</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755930111-sazonador-lemon-pepper-hot-polvo-bote-800g-al-mejor-precio-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Crema de cacahate</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3266,17 +3266,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755921589-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3314,17 +3314,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755921589-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>La Duena</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3362,12 +3362,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-923131178-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3410,12 +3410,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-923131178-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3458,12 +3458,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P084</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756567694-sazonador-fuego-en-polvo-bote-800g-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3506,17 +3506,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P084</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756567694-sazonador-fuego-en-polvo-bote-800g-al-mejor-precio-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Abal</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -3554,17 +3554,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756567270-salsa-picante-cajun-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Keto</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -3602,12 +3602,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756567270-salsa-picante-cajun-para-alitas-38-l-al-mejor-precio-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3650,17 +3650,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-875618411-salsa-cajun-para-alitas-378-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -3698,17 +3698,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-875618411-salsa-cajun-para-alitas-378-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -3746,17 +3746,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756582084-salsa-naranja-chipotle-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -3794,17 +3794,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756582084-salsa-naranja-chipotle-para-alitas-38-l-al-mejor-precio-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -3842,17 +3842,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-868064080-salsa-naranja-chipotle-38-lt-_JM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -3890,17 +3890,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-868064080-salsa-naranja-chipotle-38-lt-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -3938,17 +3938,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>P088</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755917478-sazonador-chedar-en-polvo-800g-_JM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -3986,17 +3986,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>P088</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755917478-sazonador-chedar-en-polvo-800g-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -4034,17 +4034,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>P089</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756586580-sazonador-lemon-pepper-en-polvo-bote-800g-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -4082,17 +4082,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>P089</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756586580-sazonador-lemon-pepper-en-polvo-bote-800g-al-mejor-precio-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -4130,17 +4130,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756586369-salsa-lemon-pepper-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -4178,17 +4178,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756586369-salsa-lemon-pepper-para-alitas-38-l-al-mejor-precio-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -4226,17 +4226,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-799001903-salsa-lemon-pepper-para-alitas-1-galon-_JM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -4274,17 +4274,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-799001903-salsa-lemon-pepper-para-alitas-1-galon-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -4322,17 +4322,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755933726-salsa-ajo-parmesano-38-lts-para-alitas-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -4370,17 +4370,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755933726-salsa-ajo-parmesano-38-lts-para-alitas-al-mejor-precio-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Crema de cacahate</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -4418,17 +4418,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-865372434-salsa-ajo-parmesano-para-alitas-38-l-_JM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sin azúcar</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -4466,17 +4466,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-865372434-salsa-ajo-parmesano-para-alitas-38-l-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sin azúcar</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -4514,12 +4514,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
+          <t>P137</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-848013478-salsa-de-guacamole-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4562,12 +4562,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
+          <t>P137</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-848013478-salsa-de-guacamole-para-alitas-38-l-al-mejor-precio-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4610,17 +4610,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Abal</t>
+          <t>Sazonador</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/salsa-mango-habanero-43kg-custom-culinary-zafran-alitas/p/MLM19808826</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/salsa-mango-habanero-43kg-custom-culinary-zafran-alitas/p/MLM19808826</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -4703,8 +4703,3272 @@
       <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr"/>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+      <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sin azúcar</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Sin azúcar</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ingredientes</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sriracha</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sriracha</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sriracha</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sriracha</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="inlineStr"/>
+      <c r="AH101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Vegano</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+      <c r="AG102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Crema de cacahate</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+      <c r="AG103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Sriracha</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+      <c r="AG104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sriracha</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>La Duena</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>La Duena</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr"/>
+      <c r="AG108" t="inlineStr"/>
+      <c r="AH108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+      <c r="AG109" t="inlineStr"/>
+      <c r="AH109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
+      <c r="AG110" t="inlineStr"/>
+      <c r="AH110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="inlineStr"/>
+      <c r="AG111" t="inlineStr"/>
+      <c r="AH111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+      <c r="AG112" t="inlineStr"/>
+      <c r="AH112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Abal</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+      <c r="AG114" t="inlineStr"/>
+      <c r="AH114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Abal</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="inlineStr"/>
+      <c r="AH115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Keto</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="inlineStr"/>
+      <c r="AG116" t="inlineStr"/>
+      <c r="AH116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
+      <c r="AG117" t="inlineStr"/>
+      <c r="AH117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="inlineStr"/>
+      <c r="AG118" t="inlineStr"/>
+      <c r="AH118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Vegano</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
+      <c r="AG119" t="inlineStr"/>
+      <c r="AH119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
+      <c r="AG120" t="inlineStr"/>
+      <c r="AH120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="inlineStr"/>
+      <c r="AG121" t="inlineStr"/>
+      <c r="AH121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="inlineStr"/>
+      <c r="AG122" t="inlineStr"/>
+      <c r="AH122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
+      <c r="AH124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
+      <c r="AG125" t="inlineStr"/>
+      <c r="AH125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="inlineStr"/>
+      <c r="AH126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="inlineStr"/>
+      <c r="AH127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+      <c r="AF128" t="inlineStr"/>
+      <c r="AG128" t="inlineStr"/>
+      <c r="AH128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+      <c r="AF129" t="inlineStr"/>
+      <c r="AG129" t="inlineStr"/>
+      <c r="AH129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+      <c r="AF130" t="inlineStr"/>
+      <c r="AG130" t="inlineStr"/>
+      <c r="AH130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr"/>
+      <c r="AF131" t="inlineStr"/>
+      <c r="AG131" t="inlineStr"/>
+      <c r="AH131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr"/>
+      <c r="AF132" t="inlineStr"/>
+      <c r="AG132" t="inlineStr"/>
+      <c r="AH132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
+      <c r="AB133" t="inlineStr"/>
+      <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr"/>
+      <c r="AF133" t="inlineStr"/>
+      <c r="AG133" t="inlineStr"/>
+      <c r="AH133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr"/>
+      <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr"/>
+      <c r="AF134" t="inlineStr"/>
+      <c r="AG134" t="inlineStr"/>
+      <c r="AH134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr"/>
+      <c r="AF135" t="inlineStr"/>
+      <c r="AG135" t="inlineStr"/>
+      <c r="AH135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr"/>
+      <c r="AF136" t="inlineStr"/>
+      <c r="AG136" t="inlineStr"/>
+      <c r="AH136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr"/>
+      <c r="AF137" t="inlineStr"/>
+      <c r="AG137" t="inlineStr"/>
+      <c r="AH137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr"/>
+      <c r="AF138" t="inlineStr"/>
+      <c r="AG138" t="inlineStr"/>
+      <c r="AH138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+      <c r="AB139" t="inlineStr"/>
+      <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr"/>
+      <c r="AF139" t="inlineStr"/>
+      <c r="AG139" t="inlineStr"/>
+      <c r="AH139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr"/>
+      <c r="AF140" t="inlineStr"/>
+      <c r="AG140" t="inlineStr"/>
+      <c r="AH140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr"/>
+      <c r="AF141" t="inlineStr"/>
+      <c r="AG141" t="inlineStr"/>
+      <c r="AH141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="inlineStr"/>
+      <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr"/>
+      <c r="AF142" t="inlineStr"/>
+      <c r="AG142" t="inlineStr"/>
+      <c r="AH142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr"/>
+      <c r="AF143" t="inlineStr"/>
+      <c r="AG143" t="inlineStr"/>
+      <c r="AH143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr"/>
+      <c r="AF144" t="inlineStr"/>
+      <c r="AG144" t="inlineStr"/>
+      <c r="AH144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr"/>
+      <c r="AF145" t="inlineStr"/>
+      <c r="AG145" t="inlineStr"/>
+      <c r="AH145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr"/>
+      <c r="AF146" t="inlineStr"/>
+      <c r="AG146" t="inlineStr"/>
+      <c r="AH146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
+      <c r="AF147" t="inlineStr"/>
+      <c r="AG147" t="inlineStr"/>
+      <c r="AH147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Crema de cacahate</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="inlineStr"/>
+      <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr"/>
+      <c r="AF148" t="inlineStr"/>
+      <c r="AG148" t="inlineStr"/>
+      <c r="AH148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sin azúcar</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr"/>
+      <c r="AF149" t="inlineStr"/>
+      <c r="AG149" t="inlineStr"/>
+      <c r="AH149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sin azúcar</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="inlineStr"/>
+      <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr"/>
+      <c r="AF150" t="inlineStr"/>
+      <c r="AG150" t="inlineStr"/>
+      <c r="AH150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr"/>
+      <c r="AF151" t="inlineStr"/>
+      <c r="AG151" t="inlineStr"/>
+      <c r="AH151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr"/>
+      <c r="AF152" t="inlineStr"/>
+      <c r="AG152" t="inlineStr"/>
+      <c r="AH152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Abal</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr"/>
+      <c r="AF153" t="inlineStr"/>
+      <c r="AG153" t="inlineStr"/>
+      <c r="AH153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/salsa-mango-habanero-43kg-custom-culinary-zafran-alitas/p/MLM19808826</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/salsa-mango-habanero-43kg-custom-culinary-zafran-alitas/p/MLM19808826</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr"/>
+      <c r="AF154" t="inlineStr"/>
+      <c r="AG154" t="inlineStr"/>
+      <c r="AH154" t="inlineStr"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D86">
+  <conditionalFormatting sqref="D2:D154">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>LOWER(D2)="si"</formula>
     </cfRule>
@@ -4712,7 +7976,7 @@
       <formula>LOWER(D2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E86">
+  <conditionalFormatting sqref="E2:E154">
     <cfRule type="expression" priority="3" dxfId="0">
       <formula>LOWER(E2)="si"</formula>
     </cfRule>
@@ -4720,7 +7984,7 @@
       <formula>LOWER(E2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F86">
+  <conditionalFormatting sqref="F2:F154">
     <cfRule type="expression" priority="5" dxfId="0">
       <formula>LOWER(F2)="si"</formula>
     </cfRule>
@@ -4728,7 +7992,7 @@
       <formula>LOWER(F2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G86">
+  <conditionalFormatting sqref="G2:G154">
     <cfRule type="expression" priority="7" dxfId="0">
       <formula>LOWER(G2)="si"</formula>
     </cfRule>
@@ -4736,7 +8000,7 @@
       <formula>LOWER(G2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H86">
+  <conditionalFormatting sqref="H2:H154">
     <cfRule type="expression" priority="9" dxfId="0">
       <formula>LOWER(H2)="si"</formula>
     </cfRule>
@@ -4744,7 +8008,7 @@
       <formula>LOWER(H2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I86">
+  <conditionalFormatting sqref="I2:I154">
     <cfRule type="expression" priority="11" dxfId="0">
       <formula>LOWER(I2)="si"</formula>
     </cfRule>
@@ -4752,7 +8016,7 @@
       <formula>LOWER(I2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J86">
+  <conditionalFormatting sqref="J2:J154">
     <cfRule type="expression" priority="13" dxfId="0">
       <formula>LOWER(J2)="si"</formula>
     </cfRule>
@@ -4760,7 +8024,7 @@
       <formula>LOWER(J2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K86">
+  <conditionalFormatting sqref="K2:K154">
     <cfRule type="expression" priority="15" dxfId="0">
       <formula>LOWER(K2)="si"</formula>
     </cfRule>
@@ -4768,7 +8032,7 @@
       <formula>LOWER(K2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L86">
+  <conditionalFormatting sqref="L2:L154">
     <cfRule type="expression" priority="17" dxfId="0">
       <formula>LOWER(L2)="si"</formula>
     </cfRule>
@@ -4776,7 +8040,7 @@
       <formula>LOWER(L2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M86">
+  <conditionalFormatting sqref="M2:M154">
     <cfRule type="expression" priority="19" dxfId="0">
       <formula>LOWER(M2)="si"</formula>
     </cfRule>
@@ -4784,7 +8048,7 @@
       <formula>LOWER(M2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N86">
+  <conditionalFormatting sqref="N2:N154">
     <cfRule type="expression" priority="21" dxfId="0">
       <formula>LOWER(N2)="si"</formula>
     </cfRule>
@@ -4792,7 +8056,7 @@
       <formula>LOWER(N2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O86">
+  <conditionalFormatting sqref="O2:O154">
     <cfRule type="expression" priority="23" dxfId="0">
       <formula>LOWER(O2)="si"</formula>
     </cfRule>
@@ -4800,7 +8064,7 @@
       <formula>LOWER(O2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P86">
+  <conditionalFormatting sqref="P2:P154">
     <cfRule type="expression" priority="25" dxfId="0">
       <formula>LOWER(P2)="si"</formula>
     </cfRule>
@@ -4808,7 +8072,7 @@
       <formula>LOWER(P2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q86">
+  <conditionalFormatting sqref="Q2:Q154">
     <cfRule type="expression" priority="27" dxfId="0">
       <formula>LOWER(Q2)="si"</formula>
     </cfRule>
@@ -4816,7 +8080,7 @@
       <formula>LOWER(Q2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R86">
+  <conditionalFormatting sqref="R2:R154">
     <cfRule type="expression" priority="29" dxfId="0">
       <formula>LOWER(R2)="si"</formula>
     </cfRule>
@@ -4824,7 +8088,7 @@
       <formula>LOWER(R2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S86">
+  <conditionalFormatting sqref="S2:S154">
     <cfRule type="expression" priority="31" dxfId="0">
       <formula>LOWER(S2)="si"</formula>
     </cfRule>
@@ -4832,7 +8096,7 @@
       <formula>LOWER(S2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T86">
+  <conditionalFormatting sqref="T2:T154">
     <cfRule type="expression" priority="33" dxfId="0">
       <formula>LOWER(T2)="si"</formula>
     </cfRule>
@@ -4840,7 +8104,7 @@
       <formula>LOWER(T2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U86">
+  <conditionalFormatting sqref="U2:U154">
     <cfRule type="expression" priority="35" dxfId="0">
       <formula>LOWER(U2)="si"</formula>
     </cfRule>
@@ -4848,7 +8112,7 @@
       <formula>LOWER(U2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V86">
+  <conditionalFormatting sqref="V2:V154">
     <cfRule type="expression" priority="37" dxfId="0">
       <formula>LOWER(V2)="si"</formula>
     </cfRule>
@@ -4856,7 +8120,7 @@
       <formula>LOWER(V2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W86">
+  <conditionalFormatting sqref="W2:W154">
     <cfRule type="expression" priority="39" dxfId="0">
       <formula>LOWER(W2)="si"</formula>
     </cfRule>
@@ -4864,7 +8128,7 @@
       <formula>LOWER(W2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X86">
+  <conditionalFormatting sqref="X2:X154">
     <cfRule type="expression" priority="41" dxfId="0">
       <formula>LOWER(X2)="si"</formula>
     </cfRule>
@@ -4872,7 +8136,7 @@
       <formula>LOWER(X2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y86">
+  <conditionalFormatting sqref="Y2:Y154">
     <cfRule type="expression" priority="43" dxfId="0">
       <formula>LOWER(Y2)="si"</formula>
     </cfRule>
@@ -4880,7 +8144,7 @@
       <formula>LOWER(Y2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z86">
+  <conditionalFormatting sqref="Z2:Z154">
     <cfRule type="expression" priority="45" dxfId="0">
       <formula>LOWER(Z2)="si"</formula>
     </cfRule>
@@ -4888,7 +8152,7 @@
       <formula>LOWER(Z2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA86">
+  <conditionalFormatting sqref="AA2:AA154">
     <cfRule type="expression" priority="47" dxfId="0">
       <formula>LOWER(AA2)="si"</formula>
     </cfRule>
@@ -4896,7 +8160,7 @@
       <formula>LOWER(AA2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB86">
+  <conditionalFormatting sqref="AB2:AB154">
     <cfRule type="expression" priority="49" dxfId="0">
       <formula>LOWER(AB2)="si"</formula>
     </cfRule>
@@ -4904,7 +8168,7 @@
       <formula>LOWER(AB2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC86">
+  <conditionalFormatting sqref="AC2:AC154">
     <cfRule type="expression" priority="51" dxfId="0">
       <formula>LOWER(AC2)="si"</formula>
     </cfRule>
@@ -4912,7 +8176,7 @@
       <formula>LOWER(AC2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD86">
+  <conditionalFormatting sqref="AD2:AD154">
     <cfRule type="expression" priority="53" dxfId="0">
       <formula>LOWER(AD2)="si"</formula>
     </cfRule>
@@ -4920,7 +8184,7 @@
       <formula>LOWER(AD2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE86">
+  <conditionalFormatting sqref="AE2:AE154">
     <cfRule type="expression" priority="55" dxfId="0">
       <formula>LOWER(AE2)="si"</formula>
     </cfRule>
@@ -4928,7 +8192,7 @@
       <formula>LOWER(AE2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF86">
+  <conditionalFormatting sqref="AF2:AF154">
     <cfRule type="expression" priority="57" dxfId="0">
       <formula>LOWER(AF2)="si"</formula>
     </cfRule>
@@ -4936,7 +8200,7 @@
       <formula>LOWER(AF2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG86">
+  <conditionalFormatting sqref="AG2:AG154">
     <cfRule type="expression" priority="59" dxfId="0">
       <formula>LOWER(AG2)="si"</formula>
     </cfRule>
@@ -4944,7 +8208,7 @@
       <formula>LOWER(AG2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH86">
+  <conditionalFormatting sqref="AH2:AH154">
     <cfRule type="expression" priority="61" dxfId="0">
       <formula>LOWER(AH2)="si"</formula>
     </cfRule>

--- a/reports/2025/inventory_2025-08.xlsx
+++ b/reports/2025/inventory_2025-08.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH154"/>
+  <dimension ref="A1:AH231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +631,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-797686298-salsa-para-alitas-sabor-mezcal-38l-inigualabe-e-innovadora-_JM</t>
+          <t>Salsa Para Alitas Mr Wings Mezcal 3.8l Ahumada Y Dulce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-797686298-salsa-para-alitas-sabor-mezcal-38l-inigualabe-e-innovadora-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Salsa Sabor Mezcal 3.8lt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-893622220-salsa-sabor-mezcal-38lt-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-797686298-salsa-para-alitas-sabor-mezcal-38l-inigualabe-e-innovadora-_JM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-893622220-salsa-sabor-mezcal-38lt-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-797686298-salsa-para-alitas-sabor-mezcal-38l-inigualabe-e-innovadora-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -818,12 +818,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P055</t>
+          <t>P-0155</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-936534850</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-893622220-salsa-sabor-mezcal-38lt-_JM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -866,12 +866,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P069</t>
+          <t>P-0155</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755923056-salsa-picante-buffalo-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-893622220-salsa-sabor-mezcal-38lt-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -914,12 +914,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P069</t>
+          <t>P055</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755923056-salsa-picante-buffalo-para-alitas-38-l-al-mejor-precio-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Sazonador Fuego En Polvo Mr Wings 1 Kg Picante Extremo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -962,12 +962,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P069</t>
+          <t>P055</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825377787-salsa-bufalo-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-936534850</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825377787-salsa-bufalo-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>Salsa Bufalo Para Alitas 3.8 L Al Mejor Precio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1058,12 +1058,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P070</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756574513-sazonador-cajun-en-polvo-bote-650g-al-mejor-precio-_JM</t>
+          <t>Salsa Picante Buffalo Mr Wings 3.8 L Para Alitas, Botanas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P070</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756574513-sazonador-cajun-en-polvo-bote-650g-al-mejor-precio-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755923056-salsa-picante-buffalo-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1154,12 +1154,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P071</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756582654-salsa-picante-original-h-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755923056-salsa-picante-buffalo-para-alitas-38-l-al-mejor-precio-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1202,12 +1202,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P071</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756582654-salsa-picante-original-h-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825377787-salsa-bufalo-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1250,12 +1250,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P073</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755952625-salsa-honey-mustard-mostaza-dulce-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825377787-salsa-bufalo-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1298,12 +1298,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P073</t>
+          <t>P070</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755952625-salsa-honey-mustard-mostaza-dulce-38-l-al-mejor-precio-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Sazonador Cajun En Polvo 650g Mr Wings Alitas, Papas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1346,12 +1346,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P074</t>
+          <t>P070</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874460232-salsa-para-alitas-crema-de-habanero-38lts-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756574513-sazonador-cajun-en-polvo-bote-650g-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1394,12 +1394,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P074</t>
+          <t>P070</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874460232-salsa-para-alitas-crema-de-habanero-38lts-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756574513-sazonador-cajun-en-polvo-bote-650g-al-mejor-precio-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1442,12 +1442,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P075</t>
+          <t>P071</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755926452-salsa-picante-pina-hot-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>Salsa Picante Mr Wings Original Hot 3.8 L Para Alitas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1490,12 +1490,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P075</t>
+          <t>P071</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755926452-salsa-picante-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756582654-salsa-picante-original-h-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1538,12 +1538,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P075</t>
+          <t>P071</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825295407-salsa-pina-hot-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756582654-salsa-picante-original-h-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1586,12 +1586,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P075</t>
+          <t>P073</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825295407-salsa-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>Salsa Honey Mustard Mr Wings 3.8l Para Alitas, Mostaza Dulce</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1634,12 +1634,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P076</t>
+          <t>P073</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755917563-salsa-picante-para-alitas-bbq-chipotle-38l-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755952625-salsa-honey-mustard-mostaza-dulce-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1682,12 +1682,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P076</t>
+          <t>P073</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755917563-salsa-picante-para-alitas-bbq-chipotle-38l-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755952625-salsa-honey-mustard-mostaza-dulce-38-l-al-mejor-precio-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1730,12 +1730,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P076</t>
+          <t>P074</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-868471591-salsa-bbq-chipotle-_JM</t>
+          <t>Salsa Para Alitas Crema De Habanero 3.8lts</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1778,12 +1778,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P076</t>
+          <t>P074</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-868471591-salsa-bbq-chipotle-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874460232-salsa-para-alitas-crema-de-habanero-38lts-_JM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1826,12 +1826,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P074</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755923937-salsa-mango-habanero-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874460232-salsa-para-alitas-crema-de-habanero-38lts-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1874,12 +1874,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755923937-salsa-mango-habanero-para-alitas-38-l-al-mejor-precio-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Salsa Picante Piña Hot Mr Wings 3.8 L Para Alitas, Tacos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-816053168-salsa-mango-habanero-para-alitas-42-kg-al-mejor-precio-_JM</t>
+          <t>Salsa Piña Hot Para Alitas 3.8 L Al Mejor Precio</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1970,12 +1970,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-816053168-salsa-mango-habanero-para-alitas-42-kg-al-mejor-precio-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755926452-salsa-picante-pina-hot-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2018,12 +2018,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874397634-salsa-mango-habanero-42kg-para-alitas-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755926452-salsa-picante-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2066,12 +2066,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874397634-salsa-mango-habanero-42kg-para-alitas-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825295407-salsa-pina-hot-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2114,12 +2114,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904247331-salsa-para-alitas-mango-habanero-23-kg-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825295407-salsa-pina-hot-para-alitas-38-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2162,12 +2162,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P077</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904247331-salsa-para-alitas-mango-habanero-23-kg-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Salsa Bbq Chipotle</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2210,12 +2210,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P078</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756571227-salsa-teriyaki-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>Salsa Bbq Chipotle Mr Wings 3.8l Para Alitas, Carne, Marisco</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P078</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756571227-salsa-teriyaki-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755917563-salsa-picante-para-alitas-bbq-chipotle-38l-_JM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2306,12 +2306,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>P078</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-814451280-salsa-teriyaki-38-lts-para-alitas-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755917563-salsa-picante-para-alitas-bbq-chipotle-38l-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2354,12 +2354,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>P078</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-814451280-salsa-teriyaki-38-lts-para-alitas-al-mejor-precio-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-868471591-salsa-bbq-chipotle-_JM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2402,12 +2402,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755920242-salsa-picante-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-868471591-salsa-bbq-chipotle-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2450,12 +2450,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755920242-salsa-picante-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Salsa Mango Habanero Para Alitas 3.8 L Al Mejor Precio</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2498,12 +2498,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-770206770-salsa-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>Salsa Para Alitas Mango Habanero  2.3 Kg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2546,12 +2546,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-770206770-salsa-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Salsa Para Alitas Mango Habanero Mr Wings 3.8 L</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2594,12 +2594,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-788982442-salsa-bbq-barbecue-38l-para-alitas-mr-wings-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755923937-salsa-mango-habanero-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2642,12 +2642,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>P079</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-788982442-salsa-bbq-barbecue-38l-para-alitas-mr-wings-al-mejor-precio-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755923937-salsa-mango-habanero-para-alitas-38-l-al-mejor-precio-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2690,12 +2690,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756568095-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-816053168-salsa-mango-habanero-para-alitas-42-kg-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2738,12 +2738,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756568095-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-816053168-salsa-mango-habanero-para-alitas-42-kg-al-mejor-precio-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2786,12 +2786,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874583274-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874397634-salsa-mango-habanero-42kg-para-alitas-_JM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874583274-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874397634-salsa-mango-habanero-42kg-para-alitas-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2882,12 +2882,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-tamarindo-en-galon-38l/p/MLM16595091</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904247331-salsa-para-alitas-mango-habanero-23-kg-_JM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2930,12 +2930,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>P080</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-tamarindo-en-galon-38l/p/MLM16595091?pdp_filters=seller_id:206710930#searchVariation=MLM16595091&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904247331-salsa-para-alitas-mango-habanero-23-kg-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2978,12 +2978,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P081</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756571010-salsa-picante-bbq-barbecue-habanero-para-alitas-38-l-_JM</t>
+          <t>Salsa Teriyaki 3.8 Lts Para Alitas Al Mejor Precio</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3026,12 +3026,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>P081</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756571010-salsa-picante-bbq-barbecue-habanero-para-alitas-38-l-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Salsa Teriyaki Mr Wings 3.8 L Para Alitas, Carne</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3074,12 +3074,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>P081</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-875617343-salsa-bbq-habanero-para-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756571227-salsa-teriyaki-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3122,12 +3122,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>P081</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-875617343-salsa-bbq-habanero-para-para-alitas-38-l-al-mejor-precio-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756571227-salsa-teriyaki-para-alitas-38-l-al-mejor-precio-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3170,12 +3170,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>P082</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755930111-sazonador-lemon-pepper-hot-polvo-bote-800g-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-814451280-salsa-teriyaki-38-lts-para-alitas-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3218,12 +3218,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>P082</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755930111-sazonador-lemon-pepper-hot-polvo-bote-800g-al-mejor-precio-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-814451280-salsa-teriyaki-38-lts-para-alitas-al-mejor-precio-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3266,12 +3266,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>P083</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755921589-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM</t>
+          <t>Salsa Bbq Barbecue 3.8l Para Alitas Mr Wings Al Mejor Precio</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3314,12 +3314,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>P083</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755921589-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Salsa Bbq Mr Wings 3.8 L Para Alitas, Hamburguesas, Mariscos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3362,12 +3362,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>P083</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-923131178-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM</t>
+          <t>Salsa Picante Bbq Barbecue Para Alitas 3.8 L Al Mejor Precio</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3410,12 +3410,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>P083</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-923131178-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755920242-salsa-picante-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3458,12 +3458,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>P084</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756567694-sazonador-fuego-en-polvo-bote-800g-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755920242-salsa-picante-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3506,12 +3506,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>P084</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756567694-sazonador-fuego-en-polvo-bote-800g-al-mejor-precio-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-770206770-salsa-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3554,12 +3554,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>P085</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756567270-salsa-picante-cajun-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-770206770-salsa-bbq-barbecue-para-alitas-38-l-al-mejor-precio-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3602,12 +3602,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>P085</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756567270-salsa-picante-cajun-para-alitas-38-l-al-mejor-precio-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-788982442-salsa-bbq-barbecue-38l-para-alitas-mr-wings-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3650,12 +3650,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>P085</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-875618411-salsa-cajun-para-alitas-378-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-788982442-salsa-bbq-barbecue-38l-para-alitas-mr-wings-al-mejor-precio-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3698,12 +3698,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>P085</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-875618411-salsa-cajun-para-alitas-378-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>Salsa Tamarindo Mr Wings 3.8 L Para Alitas, Dulce Y Acidita</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>P086</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756582084-salsa-naranja-chipotle-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>Salsa Tamarindo Para Alitas 3.8 L Al Mejor Precio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3794,12 +3794,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>P086</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756582084-salsa-naranja-chipotle-para-alitas-38-l-al-mejor-precio-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Salsa Tamarindo Para Alitas 3.8 L Al Mejor Precio</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3842,12 +3842,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>P086</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-868064080-salsa-naranja-chipotle-38-lt-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756568095-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3890,12 +3890,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>P086</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-868064080-salsa-naranja-chipotle-38-lt-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756568095-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3938,12 +3938,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>P088</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755917478-sazonador-chedar-en-polvo-800g-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874583274-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3986,12 +3986,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>P088</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755917478-sazonador-chedar-en-polvo-800g-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874583274-salsa-tamarindo-para-alitas-38-l-al-mejor-precio-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4034,12 +4034,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>P089</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756586580-sazonador-lemon-pepper-en-polvo-bote-800g-al-mejor-precio-_JM</t>
+          <t>https://www.mercadolibre.com.mx/mr-wings-tamarindo-en-galon-38l/p/MLM16595091</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4082,12 +4082,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>P089</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756586580-sazonador-lemon-pepper-en-polvo-bote-800g-al-mejor-precio-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://www.mercadolibre.com.mx/mr-wings-tamarindo-en-galon-38l/p/MLM16595091?pdp_filters=seller_id:206710930#searchVariation=MLM16595091&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4130,12 +4130,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>P093</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756586369-salsa-lemon-pepper-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>Salsa Bbq Habanero Mr Wings 3.8 L Para Alitas, Hamburguesas</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4178,12 +4178,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>P093</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-756586369-salsa-lemon-pepper-para-alitas-38-l-al-mejor-precio-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Salsa Bbq Habanero Para Para Alitas 3.8 L Al Mejor Precio</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4226,12 +4226,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>P093</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-799001903-salsa-lemon-pepper-para-alitas-1-galon-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756571010-salsa-picante-bbq-barbecue-habanero-para-alitas-38-l-_JM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4274,12 +4274,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>P093</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-799001903-salsa-lemon-pepper-para-alitas-1-galon-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756571010-salsa-picante-bbq-barbecue-habanero-para-alitas-38-l-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4322,12 +4322,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755933726-salsa-ajo-parmesano-38-lts-para-alitas-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-875617343-salsa-bbq-habanero-para-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4370,12 +4370,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755933726-salsa-ajo-parmesano-38-lts-para-alitas-al-mejor-precio-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-875617343-salsa-bbq-habanero-para-para-alitas-38-l-al-mejor-precio-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4418,12 +4418,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P082</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-865372434-salsa-ajo-parmesano-para-alitas-38-l-_JM</t>
+          <t>Sazonador Lemon Pepper Hot Mr Wings 0.8kg Para Alitas</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4466,12 +4466,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P082</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-865372434-salsa-ajo-parmesano-para-alitas-38-l-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755930111-sazonador-lemon-pepper-hot-polvo-bote-800g-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4514,12 +4514,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>P137</t>
+          <t>P082</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-848013478-salsa-de-guacamole-para-alitas-38-l-al-mejor-precio-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755930111-sazonador-lemon-pepper-hot-polvo-bote-800g-al-mejor-precio-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4562,12 +4562,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>P137</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-848013478-salsa-de-guacamole-para-alitas-38-l-al-mejor-precio-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Salsa Extra Hot 3.8l, Salsa Extra Picante Para Alitas</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4610,17 +4610,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
+          <t>Salsa Mr Wings X Hot 3.8l Para Alitas Picante Extremo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sazonador</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755921589-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -4706,17 +4706,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755921589-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -4754,17 +4754,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-923131178-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -4802,17 +4802,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-923131178-salsa-extra-hot-38l-salsa-extra-picante-para-alitas-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -4850,17 +4850,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM</t>
+          <t>P084</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM</t>
+          <t>Sazonador Picante Fuego En Polvo Mr Wings 800g</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -4898,17 +4898,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P084</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756567694-sazonador-fuego-en-polvo-bote-800g-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -4946,17 +4946,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM</t>
+          <t>P084</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756567694-sazonador-fuego-en-polvo-bote-800g-al-mejor-precio-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -4994,17 +4994,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>Salsa Cajun Mr Wings  3.8 L Para Alitas, Mariscos, Carne</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -5042,17 +5042,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756567270-salsa-picante-cajun-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -5090,17 +5090,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756567270-salsa-picante-cajun-para-alitas-38-l-al-mejor-precio-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sin azúcar</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -5138,17 +5138,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-875618411-salsa-cajun-para-alitas-378-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sin azúcar</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -5186,17 +5186,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-875618411-salsa-cajun-para-alitas-378-l-al-mejor-precio-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ingredientes</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -5234,17 +5234,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM</t>
+          <t>Salsa Naranja Chipotle 3.8 Lt.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -5282,17 +5282,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>Salsa Naranja Chipotle Mr Wings 3.8 L  Para Alitas, Carnes</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -5330,17 +5330,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756582084-salsa-naranja-chipotle-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -5378,17 +5378,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756582084-salsa-naranja-chipotle-para-alitas-38-l-al-mejor-precio-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -5426,17 +5426,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-868064080-salsa-naranja-chipotle-38-lt-_JM</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -5474,17 +5474,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-868064080-salsa-naranja-chipotle-38-lt-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Crema de cacahate</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -5522,17 +5522,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM</t>
+          <t>P088</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM</t>
+          <t>Sazonador Queso Cheddar En Polvo 800g - Mr Wings Palomitas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -5570,17 +5570,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
+          <t>P088</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755917478-sazonador-chedar-en-polvo-800g-_JM</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sriracha</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -5618,17 +5618,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM</t>
+          <t>P088</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755917478-sazonador-chedar-en-polvo-800g-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>La Duena</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -5666,17 +5666,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P089</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>Sazonador Lemon Pepper Mr Wings 800g Para Papas, Alitas</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>La Duena</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -5714,12 +5714,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM</t>
+          <t>P089</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756586580-sazonador-lemon-pepper-en-polvo-bote-800g-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5762,12 +5762,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P089</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756586580-sazonador-lemon-pepper-en-polvo-bote-800g-al-mejor-precio-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5810,12 +5810,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM</t>
+          <t>Salsa Lemon Pepper Mr Wings 3.8 L Para Alitas, Boneless</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5858,12 +5858,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756586369-salsa-lemon-pepper-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5906,12 +5906,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756586369-salsa-lemon-pepper-para-alitas-38-l-al-mejor-precio-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5954,12 +5954,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-799001903-salsa-lemon-pepper-para-alitas-1-galon-_JM</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -6002,17 +6002,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-799001903-salsa-lemon-pepper-para-alitas-1-galon-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Abal</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -6050,17 +6050,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+          <t>Salsa Ajo Parmesano  Para Alitas 3.8 L</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Abal</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -6098,17 +6098,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
+          <t>Salsa Ajo Parmesano Mr Wings 3.8 L Para Alitas, Especiado</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Keto</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -6146,12 +6146,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755933726-salsa-ajo-parmesano-38-lts-para-alitas-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -6194,12 +6194,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755933726-salsa-ajo-parmesano-38-lts-para-alitas-al-mejor-precio-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6242,17 +6242,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-865372434-salsa-ajo-parmesano-para-alitas-38-l-_JM</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -6290,17 +6290,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-865372434-salsa-ajo-parmesano-para-alitas-38-l-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -6338,17 +6338,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>P137</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>Salsa Guacamole Mr Wings 3.8 L Para Alitas, Comida Mexicana</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -6386,17 +6386,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM</t>
+          <t>P137</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-848013478-salsa-de-guacamole-para-alitas-38-l-al-mejor-precio-_JM</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -6434,17 +6434,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>P137</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-848013478-salsa-de-guacamole-para-alitas-38-l-al-mejor-precio-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Mr Wings</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -6482,17 +6482,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM</t>
+          <t>Sazonador Saborizante Tipo Takis Fuego En Polvo 500gr Deliux</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Sazonador</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -6530,17 +6530,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1307751214-sazonador-saborizante-tipo-takis-fuego-en-polvo-500gr-deliux-_JM</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Sazonador</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -6578,17 +6578,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM</t>
+          <t>Aderezo Ranch Alitas 1 Pieza 5 L Ensalada Restaurantes</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -6626,17 +6626,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -6674,17 +6674,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-629294328-aderezo-ranch-alitas-1-pieza-5-l-ensalada-restaurantes-_JM#position=19&amp;search_layout=stack&amp;type=pad&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=19&amp;ad_click_id=MDI5YmYzNDAtYTc5Ny00Y2RkLWE4OTUtYzIxZGYyOWQxMDgw</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -6722,17 +6722,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Inigualable Salsa Alitas - Bbq Clásica - 1 Garrafa 3.78 L</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -6770,17 +6770,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -6818,17 +6818,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634347724-inigualable-salsa-alitas-bbq-clasica-1-garrafa-378-l-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -6866,17 +6866,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM</t>
+          <t>Inigualable Salsa Alitas - Bbq Chipotle - 1 Garrafa 3.78 L</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -6914,17 +6914,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -6962,17 +6962,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348864-inigualable-salsa-alitas-bbq-chipotle-1-garrafa-378-l-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -7010,17 +7010,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>Inigualable Salsa Alitas Buf Wings 1 Garrafa 3.78 L Red Hot</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -7058,17 +7058,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -7106,17 +7106,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-634348989-inigualable-salsa-alitas-buf-wings-1-garrafa-378-l-red-hot-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -7154,17 +7154,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM</t>
+          <t>Salsa De Soya - 5 Litros - Dragon Rojo China, Japonesa Sushi</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -7202,17 +7202,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-660174259-salsa-de-soya-5-litros-dragon-rojo-china-japonesa-sushi-_JM</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Inigualable</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -7250,17 +7250,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM</t>
+          <t>Extracto De Stevia Líquida Natural ¡no Amarga!</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Sin azúcar</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -7298,17 +7298,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-726165420-extracto-de-stevia-liquida-natural-no-amarga-_JM</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Sin azúcar</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -7346,17 +7346,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM</t>
+          <t>Eritritol 1 Kg Jungbunzlauer 100% Natural</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Sin azúcar</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -7394,17 +7394,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-728716313-eritritol-1-kg-jungbunzlauer-100-natural-_JM</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Sin azúcar</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -7442,17 +7442,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM</t>
+          <t>Acido Citrico 1 Kg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Ingredientes</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -7490,17 +7490,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-742060144-acido-citrico-1-kg-_JM</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Ingredientes</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -7538,17 +7538,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM</t>
+          <t>Sriracha Salsa Picante 793g Original</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Sriracha</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -7586,17 +7586,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Inigualable</t>
+          <t>Sriracha</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -7634,17 +7634,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-760483638-sriracha-salsa-picante-793g-original-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Crema de cacahate</t>
+          <t>Sriracha</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -7682,17 +7682,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
+          <t>Sriracha Salsa Picante Huy Fong 793g</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sin azúcar</t>
+          <t>Sriracha</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -7730,17 +7730,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sin azúcar</t>
+          <t>Sriracha</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -7778,17 +7778,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-761995023-sriracha-salsa-picante-huy-fong-793g-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Mr Wings</t>
+          <t>Sriracha</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -7826,17 +7826,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
+          <t>Tofu Extra Firme 12 Piezas 349g Libre De Gluten</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Mr Wings</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -7874,17 +7874,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-777978939-tofu-extra-firme-12-piezas-349g-libre-de-gluten-_JM</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Abal</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -7922,17 +7922,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/salsa-mango-habanero-43kg-custom-culinary-zafran-alitas/p/MLM19808826</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/salsa-mango-habanero-43kg-custom-culinary-zafran-alitas/p/MLM19808826</t>
+          <t>Crema De Cacahuate Oaxaqueño Sin Azúcar 100% Natural 220g</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Custom Culinary</t>
+          <t>Crema de cacahate</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -7967,8 +7967,3704 @@
       <c r="AG154" t="inlineStr"/>
       <c r="AH154" t="inlineStr"/>
     </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-781752942-crema-de-cacahuate-oaxaqueno-sin-azucar-100-natural-220g-_JM</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Crema de cacahate</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr"/>
+      <c r="AF155" t="inlineStr"/>
+      <c r="AG155" t="inlineStr"/>
+      <c r="AH155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Caja De Salsa Sriracha Con 12 Piezas De 793 G</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Sriracha</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="inlineStr"/>
+      <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr"/>
+      <c r="AF156" t="inlineStr"/>
+      <c r="AG156" t="inlineStr"/>
+      <c r="AH156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Sriracha</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr"/>
+      <c r="AF157" t="inlineStr"/>
+      <c r="AG157" t="inlineStr"/>
+      <c r="AH157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-790447226-caja-de-salsa-sriracha-con-12-piezas-de-793-g-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=bedcf8aa-55cc-4adb-bf03-23858a282b78</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Sriracha</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr"/>
+      <c r="AF158" t="inlineStr"/>
+      <c r="AG158" t="inlineStr"/>
+      <c r="AH158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Aderezo Blue Cheese La Dueña 2lt Innigualable Sabor</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>La Duena</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr"/>
+      <c r="AF159" t="inlineStr"/>
+      <c r="AG159" t="inlineStr"/>
+      <c r="AH159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>La Duena</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="inlineStr"/>
+      <c r="AG160" t="inlineStr"/>
+      <c r="AH160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-800668712-aderezo-blue-cheese-la-duena-2lt-innigualable-sabor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>La Duena</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr"/>
+      <c r="AF161" t="inlineStr"/>
+      <c r="AG161" t="inlineStr"/>
+      <c r="AH161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr"/>
+      <c r="AF162" t="inlineStr"/>
+      <c r="AG162" t="inlineStr"/>
+      <c r="AH162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-819533373-16-muestras-de-salsas-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr"/>
+      <c r="AF163" t="inlineStr"/>
+      <c r="AG163" t="inlineStr"/>
+      <c r="AH163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Paquete De 4 Salsas Para Alitas</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr"/>
+      <c r="AF164" t="inlineStr"/>
+      <c r="AG164" t="inlineStr"/>
+      <c r="AH164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr"/>
+      <c r="AF165" t="inlineStr"/>
+      <c r="AG165" t="inlineStr"/>
+      <c r="AH165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-825433680-paquete-de-4-salsas-para-alitas-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr"/>
+      <c r="AF166" t="inlineStr"/>
+      <c r="AG166" t="inlineStr"/>
+      <c r="AH166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr"/>
+      <c r="AF167" t="inlineStr"/>
+      <c r="AG167" t="inlineStr"/>
+      <c r="AH167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-831255712-paquete-de-8-salsas-para-alitas-de-42kg-cada-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr"/>
+      <c r="AF168" t="inlineStr"/>
+      <c r="AG168" t="inlineStr"/>
+      <c r="AH168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Salsa Abal Para Alitas Costillas Cocinar Bbq Barbecue 4kg</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Abal</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr"/>
+      <c r="AF169" t="inlineStr"/>
+      <c r="AG169" t="inlineStr"/>
+      <c r="AH169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Abal</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="inlineStr"/>
+      <c r="AG170" t="inlineStr"/>
+      <c r="AH170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-849872386-salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=14462c17-0a51-4a5d-9b15-182028b4dd68</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Abal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="inlineStr"/>
+      <c r="AG171" t="inlineStr"/>
+      <c r="AH171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Mix De Sales Para Preparar Electrolitos Sin Azúcar Low Carb</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Keto</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="inlineStr"/>
+      <c r="AG172" t="inlineStr"/>
+      <c r="AH172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-861868855-mix-de-sales-para-preparar-electrolitos-sin-azucar-low-carb-_JM</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Keto</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr"/>
+      <c r="AF173" t="inlineStr"/>
+      <c r="AG173" t="inlineStr"/>
+      <c r="AH173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr"/>
+      <c r="AF174" t="inlineStr"/>
+      <c r="AG174" t="inlineStr"/>
+      <c r="AH174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-874621959-caja-de-4-salsas-sabor-mango-habanero-para-alitas-38-l-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr"/>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="inlineStr"/>
+      <c r="AD175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr"/>
+      <c r="AF175" t="inlineStr"/>
+      <c r="AG175" t="inlineStr"/>
+      <c r="AH175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Kéfir Coco 4 Pack</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Vegano</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr"/>
+      <c r="AF176" t="inlineStr"/>
+      <c r="AG176" t="inlineStr"/>
+      <c r="AH176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-891990008-kefir-coco-4-pack-_JM</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Vegano</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr"/>
+      <c r="AA177" t="inlineStr"/>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr"/>
+      <c r="AE177" t="inlineStr"/>
+      <c r="AF177" t="inlineStr"/>
+      <c r="AG177" t="inlineStr"/>
+      <c r="AH177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Aderezo Ranch 3.8lt</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr"/>
+      <c r="AF178" t="inlineStr"/>
+      <c r="AG178" t="inlineStr"/>
+      <c r="AH178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr"/>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr"/>
+      <c r="AF179" t="inlineStr"/>
+      <c r="AG179" t="inlineStr"/>
+      <c r="AH179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-903136780-aderezo-ranch-38lt-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
+      <c r="AA180" t="inlineStr"/>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr"/>
+      <c r="AF180" t="inlineStr"/>
+      <c r="AG180" t="inlineStr"/>
+      <c r="AH180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Salsa Bbq Zafran 4 Kg</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr"/>
+      <c r="AF181" t="inlineStr"/>
+      <c r="AG181" t="inlineStr"/>
+      <c r="AH181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr"/>
+      <c r="AE182" t="inlineStr"/>
+      <c r="AF182" t="inlineStr"/>
+      <c r="AG182" t="inlineStr"/>
+      <c r="AH182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904246554-salsa-bbq-zafran-4-kg-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr"/>
+      <c r="AF183" t="inlineStr"/>
+      <c r="AG183" t="inlineStr"/>
+      <c r="AH183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>5 Salsas Zafran Custom C Bbq, Alitas,bbq Hot, Mango, Lemon</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr"/>
+      <c r="AE184" t="inlineStr"/>
+      <c r="AF184" t="inlineStr"/>
+      <c r="AG184" t="inlineStr"/>
+      <c r="AH184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr"/>
+      <c r="AF185" t="inlineStr"/>
+      <c r="AG185" t="inlineStr"/>
+      <c r="AH185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904255161-5-salsas-zafran-custom-c-bbq-alitasbbq-hot-mango-lemon-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Salsa Hot Bbq 2.4 Kg Zafran Custom Culinary</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+      <c r="AE187" t="inlineStr"/>
+      <c r="AF187" t="inlineStr"/>
+      <c r="AG187" t="inlineStr"/>
+      <c r="AH187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr"/>
+      <c r="AF188" t="inlineStr"/>
+      <c r="AG188" t="inlineStr"/>
+      <c r="AH188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257210-salsa-hot-bbq-24-kg-zafran-custom-culinary-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=3817b8b0-4bd8-40d1-8dd0-1f1e8548b734</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr"/>
+      <c r="AF189" t="inlineStr"/>
+      <c r="AG189" t="inlineStr"/>
+      <c r="AH189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Salsa Para Alitas 3.75 Kg Zafran Custom Culinary</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
+      <c r="AE190" t="inlineStr"/>
+      <c r="AF190" t="inlineStr"/>
+      <c r="AG190" t="inlineStr"/>
+      <c r="AH190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+      <c r="AD191" t="inlineStr"/>
+      <c r="AE191" t="inlineStr"/>
+      <c r="AF191" t="inlineStr"/>
+      <c r="AG191" t="inlineStr"/>
+      <c r="AH191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904257486-salsa-para-alitas-375-kg-zafran-custom-culinary-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="inlineStr"/>
+      <c r="AE192" t="inlineStr"/>
+      <c r="AF192" t="inlineStr"/>
+      <c r="AG192" t="inlineStr"/>
+      <c r="AH192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Jugo Sazonador Tipo Maggi 2.2kg Custom Culinary Zafran</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr"/>
+      <c r="AE193" t="inlineStr"/>
+      <c r="AF193" t="inlineStr"/>
+      <c r="AG193" t="inlineStr"/>
+      <c r="AH193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr"/>
+      <c r="AE194" t="inlineStr"/>
+      <c r="AF194" t="inlineStr"/>
+      <c r="AG194" t="inlineStr"/>
+      <c r="AH194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904263739-jugo-sazonador-tipo-maggi-22kg-custom-culinary-zafran-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr"/>
+      <c r="AE195" t="inlineStr"/>
+      <c r="AF195" t="inlineStr"/>
+      <c r="AG195" t="inlineStr"/>
+      <c r="AH195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Salsa Jugo Sazonador 4.1 Kg  Custom Culinary Zafran</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="inlineStr"/>
+      <c r="AE196" t="inlineStr"/>
+      <c r="AF196" t="inlineStr"/>
+      <c r="AG196" t="inlineStr"/>
+      <c r="AH196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="inlineStr"/>
+      <c r="AE197" t="inlineStr"/>
+      <c r="AF197" t="inlineStr"/>
+      <c r="AG197" t="inlineStr"/>
+      <c r="AH197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-904274629-salsa-jugo-sazonador-41-kg-custom-culinary-zafran-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="inlineStr"/>
+      <c r="AE198" t="inlineStr"/>
+      <c r="AF198" t="inlineStr"/>
+      <c r="AG198" t="inlineStr"/>
+      <c r="AH198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Aderezo Blue Cheese 3.6 Kg Custom Culinary Zafran</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
+      <c r="Z199" t="inlineStr"/>
+      <c r="AA199" t="inlineStr"/>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="inlineStr"/>
+      <c r="AE199" t="inlineStr"/>
+      <c r="AF199" t="inlineStr"/>
+      <c r="AG199" t="inlineStr"/>
+      <c r="AH199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="inlineStr"/>
+      <c r="AE200" t="inlineStr"/>
+      <c r="AF200" t="inlineStr"/>
+      <c r="AG200" t="inlineStr"/>
+      <c r="AH200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905150986-aderezo-blue-cheese-36-kg-custom-culinary-zafran-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
+      <c r="Z201" t="inlineStr"/>
+      <c r="AA201" t="inlineStr"/>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr"/>
+      <c r="AD201" t="inlineStr"/>
+      <c r="AE201" t="inlineStr"/>
+      <c r="AF201" t="inlineStr"/>
+      <c r="AG201" t="inlineStr"/>
+      <c r="AH201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Salsa Bbq Chile Ancho 2.2kg Custom Culinary Zafran</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr"/>
+      <c r="Z202" t="inlineStr"/>
+      <c r="AA202" t="inlineStr"/>
+      <c r="AB202" t="inlineStr"/>
+      <c r="AC202" t="inlineStr"/>
+      <c r="AD202" t="inlineStr"/>
+      <c r="AE202" t="inlineStr"/>
+      <c r="AF202" t="inlineStr"/>
+      <c r="AG202" t="inlineStr"/>
+      <c r="AH202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
+      <c r="Z203" t="inlineStr"/>
+      <c r="AA203" t="inlineStr"/>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr"/>
+      <c r="AD203" t="inlineStr"/>
+      <c r="AE203" t="inlineStr"/>
+      <c r="AF203" t="inlineStr"/>
+      <c r="AG203" t="inlineStr"/>
+      <c r="AH203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905157597-salsa-bbq-chile-ancho-22kg-custom-culinary-zafran-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr"/>
+      <c r="Z204" t="inlineStr"/>
+      <c r="AA204" t="inlineStr"/>
+      <c r="AB204" t="inlineStr"/>
+      <c r="AC204" t="inlineStr"/>
+      <c r="AD204" t="inlineStr"/>
+      <c r="AE204" t="inlineStr"/>
+      <c r="AF204" t="inlineStr"/>
+      <c r="AG204" t="inlineStr"/>
+      <c r="AH204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr"/>
+      <c r="AE205" t="inlineStr"/>
+      <c r="AF205" t="inlineStr"/>
+      <c r="AG205" t="inlineStr"/>
+      <c r="AH205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905167004-salsa-extra-hot-extra-picante-2kg-custom-culinary-zafran-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr"/>
+      <c r="AE206" t="inlineStr"/>
+      <c r="AF206" t="inlineStr"/>
+      <c r="AG206" t="inlineStr"/>
+      <c r="AH206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Salsa Tipo Inglesa 2.1 Kg Zafran Custom Culinary</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr"/>
+      <c r="Z207" t="inlineStr"/>
+      <c r="AA207" t="inlineStr"/>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="inlineStr"/>
+      <c r="AE207" t="inlineStr"/>
+      <c r="AF207" t="inlineStr"/>
+      <c r="AG207" t="inlineStr"/>
+      <c r="AH207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr"/>
+      <c r="AE208" t="inlineStr"/>
+      <c r="AF208" t="inlineStr"/>
+      <c r="AG208" t="inlineStr"/>
+      <c r="AH208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905175670-salsa-tipo-inglesa-21-kg-zafran-custom-culinary-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
+      <c r="Z209" t="inlineStr"/>
+      <c r="AA209" t="inlineStr"/>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr"/>
+      <c r="AE209" t="inlineStr"/>
+      <c r="AF209" t="inlineStr"/>
+      <c r="AG209" t="inlineStr"/>
+      <c r="AH209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Salsa Tipo Inglesa 1 Lt Zafran Custom Culinary</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr"/>
+      <c r="Z210" t="inlineStr"/>
+      <c r="AA210" t="inlineStr"/>
+      <c r="AB210" t="inlineStr"/>
+      <c r="AC210" t="inlineStr"/>
+      <c r="AD210" t="inlineStr"/>
+      <c r="AE210" t="inlineStr"/>
+      <c r="AF210" t="inlineStr"/>
+      <c r="AG210" t="inlineStr"/>
+      <c r="AH210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr"/>
+      <c r="Z211" t="inlineStr"/>
+      <c r="AA211" t="inlineStr"/>
+      <c r="AB211" t="inlineStr"/>
+      <c r="AC211" t="inlineStr"/>
+      <c r="AD211" t="inlineStr"/>
+      <c r="AE211" t="inlineStr"/>
+      <c r="AF211" t="inlineStr"/>
+      <c r="AG211" t="inlineStr"/>
+      <c r="AH211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-905177330-salsa-tipo-inglesa-1-lt-zafran-custom-culinary-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr"/>
+      <c r="Z212" t="inlineStr"/>
+      <c r="AA212" t="inlineStr"/>
+      <c r="AB212" t="inlineStr"/>
+      <c r="AC212" t="inlineStr"/>
+      <c r="AD212" t="inlineStr"/>
+      <c r="AE212" t="inlineStr"/>
+      <c r="AF212" t="inlineStr"/>
+      <c r="AG212" t="inlineStr"/>
+      <c r="AH212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Salsa Bbq Cubeta De 18 Kilos Mayoreo Para Alitas O Costillas</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr"/>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr"/>
+      <c r="Z213" t="inlineStr"/>
+      <c r="AA213" t="inlineStr"/>
+      <c r="AB213" t="inlineStr"/>
+      <c r="AC213" t="inlineStr"/>
+      <c r="AD213" t="inlineStr"/>
+      <c r="AE213" t="inlineStr"/>
+      <c r="AF213" t="inlineStr"/>
+      <c r="AG213" t="inlineStr"/>
+      <c r="AH213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr"/>
+      <c r="Z214" t="inlineStr"/>
+      <c r="AA214" t="inlineStr"/>
+      <c r="AB214" t="inlineStr"/>
+      <c r="AC214" t="inlineStr"/>
+      <c r="AD214" t="inlineStr"/>
+      <c r="AE214" t="inlineStr"/>
+      <c r="AF214" t="inlineStr"/>
+      <c r="AG214" t="inlineStr"/>
+      <c r="AH214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910390691-salsa-bbq-cubeta-de-18-kilos-mayoreo-para-alitas-o-costillas-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=07900876-48a9-42ef-b9d6-fe34affd9c03</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr"/>
+      <c r="Z215" t="inlineStr"/>
+      <c r="AA215" t="inlineStr"/>
+      <c r="AB215" t="inlineStr"/>
+      <c r="AC215" t="inlineStr"/>
+      <c r="AD215" t="inlineStr"/>
+      <c r="AE215" t="inlineStr"/>
+      <c r="AF215" t="inlineStr"/>
+      <c r="AG215" t="inlineStr"/>
+      <c r="AH215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr"/>
+      <c r="Z216" t="inlineStr"/>
+      <c r="AA216" t="inlineStr"/>
+      <c r="AB216" t="inlineStr"/>
+      <c r="AC216" t="inlineStr"/>
+      <c r="AD216" t="inlineStr"/>
+      <c r="AE216" t="inlineStr"/>
+      <c r="AF216" t="inlineStr"/>
+      <c r="AG216" t="inlineStr"/>
+      <c r="AH216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-910391598-salsa-picante-para-alitas-18kg-original-mayoreo-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=269eb207-0f3a-4491-8c18-84bd9ee56400</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Inigualable</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
+      <c r="Y217" t="inlineStr"/>
+      <c r="Z217" t="inlineStr"/>
+      <c r="AA217" t="inlineStr"/>
+      <c r="AB217" t="inlineStr"/>
+      <c r="AC217" t="inlineStr"/>
+      <c r="AD217" t="inlineStr"/>
+      <c r="AE217" t="inlineStr"/>
+      <c r="AF217" t="inlineStr"/>
+      <c r="AG217" t="inlineStr"/>
+      <c r="AH217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Crema De Cacahuate Cremosa Orgánica Kirkland 793.8gr</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Crema de cacahate</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr"/>
+      <c r="Z218" t="inlineStr"/>
+      <c r="AA218" t="inlineStr"/>
+      <c r="AB218" t="inlineStr"/>
+      <c r="AC218" t="inlineStr"/>
+      <c r="AD218" t="inlineStr"/>
+      <c r="AE218" t="inlineStr"/>
+      <c r="AF218" t="inlineStr"/>
+      <c r="AG218" t="inlineStr"/>
+      <c r="AH218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.mx/MLM-950161881-crema-de-cacahuate-cremosa-organica-kirkland-7938gr-_JM</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Crema de cacahate</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr"/>
+      <c r="Z219" t="inlineStr"/>
+      <c r="AA219" t="inlineStr"/>
+      <c r="AB219" t="inlineStr"/>
+      <c r="AC219" t="inlineStr"/>
+      <c r="AD219" t="inlineStr"/>
+      <c r="AE219" t="inlineStr"/>
+      <c r="AF219" t="inlineStr"/>
+      <c r="AG219" t="inlineStr"/>
+      <c r="AH219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Edulcorante The functional foods Fruta del Monje en polvo sin TACC bolsa 400 g</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Sin azúcar</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr"/>
+      <c r="Z220" t="inlineStr"/>
+      <c r="AA220" t="inlineStr"/>
+      <c r="AB220" t="inlineStr"/>
+      <c r="AC220" t="inlineStr"/>
+      <c r="AD220" t="inlineStr"/>
+      <c r="AE220" t="inlineStr"/>
+      <c r="AF220" t="inlineStr"/>
+      <c r="AG220" t="inlineStr"/>
+      <c r="AH220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/edulcorante-the-functional-foods-fruta-del-monje-en-polvo-sin-gluten-bolsa-400g/p/MLM17518226</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Sin azúcar</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr"/>
+      <c r="Z221" t="inlineStr"/>
+      <c r="AA221" t="inlineStr"/>
+      <c r="AB221" t="inlineStr"/>
+      <c r="AC221" t="inlineStr"/>
+      <c r="AD221" t="inlineStr"/>
+      <c r="AE221" t="inlineStr"/>
+      <c r="AF221" t="inlineStr"/>
+      <c r="AG221" t="inlineStr"/>
+      <c r="AH221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Ketchup Heinz Sin Azúcar Añadida Pet 369g</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Sin azúcar</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
+      <c r="Y222" t="inlineStr"/>
+      <c r="Z222" t="inlineStr"/>
+      <c r="AA222" t="inlineStr"/>
+      <c r="AB222" t="inlineStr"/>
+      <c r="AC222" t="inlineStr"/>
+      <c r="AD222" t="inlineStr"/>
+      <c r="AE222" t="inlineStr"/>
+      <c r="AF222" t="inlineStr"/>
+      <c r="AG222" t="inlineStr"/>
+      <c r="AH222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/ketchup-heinz-sin-azucar-anadida-pet-369g/p/MLM18974685</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Sin azúcar</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr"/>
+      <c r="Z223" t="inlineStr"/>
+      <c r="AA223" t="inlineStr"/>
+      <c r="AB223" t="inlineStr"/>
+      <c r="AC223" t="inlineStr"/>
+      <c r="AD223" t="inlineStr"/>
+      <c r="AE223" t="inlineStr"/>
+      <c r="AF223" t="inlineStr"/>
+      <c r="AG223" t="inlineStr"/>
+      <c r="AH223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Salsa Ajo Parmesano 3.8 Lts Para Alitas Al Mejor Precio</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr"/>
+      <c r="Z224" t="inlineStr"/>
+      <c r="AA224" t="inlineStr"/>
+      <c r="AB224" t="inlineStr"/>
+      <c r="AC224" t="inlineStr"/>
+      <c r="AD224" t="inlineStr"/>
+      <c r="AE224" t="inlineStr"/>
+      <c r="AF224" t="inlineStr"/>
+      <c r="AG224" t="inlineStr"/>
+      <c r="AH224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/mr-wings-ajo-parmesano-en-galon-38l/p/MLM16595103</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr"/>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="inlineStr"/>
+      <c r="AF225" t="inlineStr"/>
+      <c r="AG225" t="inlineStr"/>
+      <c r="AH225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Salsa Honey Mustard Mostaza Dulce 3.8 L Al Mejor Precio</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr"/>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+      <c r="AE226" t="inlineStr"/>
+      <c r="AF226" t="inlineStr"/>
+      <c r="AG226" t="inlineStr"/>
+      <c r="AH226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/mr-wings-honey-mustard-en-galon-38l/p/MLM16595113</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Mr Wings</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr"/>
+      <c r="Z227" t="inlineStr"/>
+      <c r="AA227" t="inlineStr"/>
+      <c r="AB227" t="inlineStr"/>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr"/>
+      <c r="AE227" t="inlineStr"/>
+      <c r="AF227" t="inlineStr"/>
+      <c r="AG227" t="inlineStr"/>
+      <c r="AH227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Salsa Abal Para Alitas Costillas Cocinar Bbq Barbecue 4kg</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Abal</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr"/>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr"/>
+      <c r="AB228" t="inlineStr"/>
+      <c r="AC228" t="inlineStr"/>
+      <c r="AD228" t="inlineStr"/>
+      <c r="AE228" t="inlineStr"/>
+      <c r="AF228" t="inlineStr"/>
+      <c r="AG228" t="inlineStr"/>
+      <c r="AH228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/salsa-abal-para-alitas-costillas-cocinar-bbq-barbecue-4kg/p/MLM19629577</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Abal</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr"/>
+      <c r="Z229" t="inlineStr"/>
+      <c r="AA229" t="inlineStr"/>
+      <c r="AB229" t="inlineStr"/>
+      <c r="AC229" t="inlineStr"/>
+      <c r="AD229" t="inlineStr"/>
+      <c r="AE229" t="inlineStr"/>
+      <c r="AF229" t="inlineStr"/>
+      <c r="AG229" t="inlineStr"/>
+      <c r="AH229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/salsa-mango-habanero-43kg-custom-culinary-zafran-alitas/p/MLM19808826</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Salsa Mango Habanero 4.3kg Custom Culinary Zafran Alitas</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr"/>
+      <c r="Z230" t="inlineStr"/>
+      <c r="AA230" t="inlineStr"/>
+      <c r="AB230" t="inlineStr"/>
+      <c r="AC230" t="inlineStr"/>
+      <c r="AD230" t="inlineStr"/>
+      <c r="AE230" t="inlineStr"/>
+      <c r="AF230" t="inlineStr"/>
+      <c r="AG230" t="inlineStr"/>
+      <c r="AH230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/salsa-mango-habanero-43kg-custom-culinary-zafran-alitas/p/MLM19808826</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://www.mercadolibre.com.mx/salsa-mango-habanero-43kg-custom-culinary-zafran-alitas/p/MLM19808826</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Custom Culinary</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr"/>
+      <c r="Z231" t="inlineStr"/>
+      <c r="AA231" t="inlineStr"/>
+      <c r="AB231" t="inlineStr"/>
+      <c r="AC231" t="inlineStr"/>
+      <c r="AD231" t="inlineStr"/>
+      <c r="AE231" t="inlineStr"/>
+      <c r="AF231" t="inlineStr"/>
+      <c r="AG231" t="inlineStr"/>
+      <c r="AH231" t="inlineStr"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D154">
+  <conditionalFormatting sqref="D2:D231">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>LOWER(D2)="si"</formula>
     </cfRule>
@@ -7976,7 +11672,7 @@
       <formula>LOWER(D2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E154">
+  <conditionalFormatting sqref="E2:E231">
     <cfRule type="expression" priority="3" dxfId="0">
       <formula>LOWER(E2)="si"</formula>
     </cfRule>
@@ -7984,7 +11680,7 @@
       <formula>LOWER(E2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F154">
+  <conditionalFormatting sqref="F2:F231">
     <cfRule type="expression" priority="5" dxfId="0">
       <formula>LOWER(F2)="si"</formula>
     </cfRule>
@@ -7992,7 +11688,7 @@
       <formula>LOWER(F2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G154">
+  <conditionalFormatting sqref="G2:G231">
     <cfRule type="expression" priority="7" dxfId="0">
       <formula>LOWER(G2)="si"</formula>
     </cfRule>
@@ -8000,7 +11696,7 @@
       <formula>LOWER(G2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H154">
+  <conditionalFormatting sqref="H2:H231">
     <cfRule type="expression" priority="9" dxfId="0">
       <formula>LOWER(H2)="si"</formula>
     </cfRule>
@@ -8008,7 +11704,7 @@
       <formula>LOWER(H2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I154">
+  <conditionalFormatting sqref="I2:I231">
     <cfRule type="expression" priority="11" dxfId="0">
       <formula>LOWER(I2)="si"</formula>
     </cfRule>
@@ -8016,7 +11712,7 @@
       <formula>LOWER(I2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J154">
+  <conditionalFormatting sqref="J2:J231">
     <cfRule type="expression" priority="13" dxfId="0">
       <formula>LOWER(J2)="si"</formula>
     </cfRule>
@@ -8024,7 +11720,7 @@
       <formula>LOWER(J2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K154">
+  <conditionalFormatting sqref="K2:K231">
     <cfRule type="expression" priority="15" dxfId="0">
       <formula>LOWER(K2)="si"</formula>
     </cfRule>
@@ -8032,7 +11728,7 @@
       <formula>LOWER(K2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L154">
+  <conditionalFormatting sqref="L2:L231">
     <cfRule type="expression" priority="17" dxfId="0">
       <formula>LOWER(L2)="si"</formula>
     </cfRule>
@@ -8040,7 +11736,7 @@
       <formula>LOWER(L2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M154">
+  <conditionalFormatting sqref="M2:M231">
     <cfRule type="expression" priority="19" dxfId="0">
       <formula>LOWER(M2)="si"</formula>
     </cfRule>
@@ -8048,7 +11744,7 @@
       <formula>LOWER(M2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N154">
+  <conditionalFormatting sqref="N2:N231">
     <cfRule type="expression" priority="21" dxfId="0">
       <formula>LOWER(N2)="si"</formula>
     </cfRule>
@@ -8056,7 +11752,7 @@
       <formula>LOWER(N2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O154">
+  <conditionalFormatting sqref="O2:O231">
     <cfRule type="expression" priority="23" dxfId="0">
       <formula>LOWER(O2)="si"</formula>
     </cfRule>
@@ -8064,7 +11760,7 @@
       <formula>LOWER(O2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P154">
+  <conditionalFormatting sqref="P2:P231">
     <cfRule type="expression" priority="25" dxfId="0">
       <formula>LOWER(P2)="si"</formula>
     </cfRule>
@@ -8072,7 +11768,7 @@
       <formula>LOWER(P2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q154">
+  <conditionalFormatting sqref="Q2:Q231">
     <cfRule type="expression" priority="27" dxfId="0">
       <formula>LOWER(Q2)="si"</formula>
     </cfRule>
@@ -8080,7 +11776,7 @@
       <formula>LOWER(Q2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R154">
+  <conditionalFormatting sqref="R2:R231">
     <cfRule type="expression" priority="29" dxfId="0">
       <formula>LOWER(R2)="si"</formula>
     </cfRule>
@@ -8088,7 +11784,7 @@
       <formula>LOWER(R2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S154">
+  <conditionalFormatting sqref="S2:S231">
     <cfRule type="expression" priority="31" dxfId="0">
       <formula>LOWER(S2)="si"</formula>
     </cfRule>
@@ -8096,7 +11792,7 @@
       <formula>LOWER(S2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T154">
+  <conditionalFormatting sqref="T2:T231">
     <cfRule type="expression" priority="33" dxfId="0">
       <formula>LOWER(T2)="si"</formula>
     </cfRule>
@@ -8104,7 +11800,7 @@
       <formula>LOWER(T2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U154">
+  <conditionalFormatting sqref="U2:U231">
     <cfRule type="expression" priority="35" dxfId="0">
       <formula>LOWER(U2)="si"</formula>
     </cfRule>
@@ -8112,7 +11808,7 @@
       <formula>LOWER(U2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V154">
+  <conditionalFormatting sqref="V2:V231">
     <cfRule type="expression" priority="37" dxfId="0">
       <formula>LOWER(V2)="si"</formula>
     </cfRule>
@@ -8120,7 +11816,7 @@
       <formula>LOWER(V2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W154">
+  <conditionalFormatting sqref="W2:W231">
     <cfRule type="expression" priority="39" dxfId="0">
       <formula>LOWER(W2)="si"</formula>
     </cfRule>
@@ -8128,7 +11824,7 @@
       <formula>LOWER(W2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X154">
+  <conditionalFormatting sqref="X2:X231">
     <cfRule type="expression" priority="41" dxfId="0">
       <formula>LOWER(X2)="si"</formula>
     </cfRule>
@@ -8136,7 +11832,7 @@
       <formula>LOWER(X2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y154">
+  <conditionalFormatting sqref="Y2:Y231">
     <cfRule type="expression" priority="43" dxfId="0">
       <formula>LOWER(Y2)="si"</formula>
     </cfRule>
@@ -8144,7 +11840,7 @@
       <formula>LOWER(Y2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z154">
+  <conditionalFormatting sqref="Z2:Z231">
     <cfRule type="expression" priority="45" dxfId="0">
       <formula>LOWER(Z2)="si"</formula>
     </cfRule>
@@ -8152,7 +11848,7 @@
       <formula>LOWER(Z2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA154">
+  <conditionalFormatting sqref="AA2:AA231">
     <cfRule type="expression" priority="47" dxfId="0">
       <formula>LOWER(AA2)="si"</formula>
     </cfRule>
@@ -8160,7 +11856,7 @@
       <formula>LOWER(AA2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB154">
+  <conditionalFormatting sqref="AB2:AB231">
     <cfRule type="expression" priority="49" dxfId="0">
       <formula>LOWER(AB2)="si"</formula>
     </cfRule>
@@ -8168,7 +11864,7 @@
       <formula>LOWER(AB2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC154">
+  <conditionalFormatting sqref="AC2:AC231">
     <cfRule type="expression" priority="51" dxfId="0">
       <formula>LOWER(AC2)="si"</formula>
     </cfRule>
@@ -8176,7 +11872,7 @@
       <formula>LOWER(AC2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD154">
+  <conditionalFormatting sqref="AD2:AD231">
     <cfRule type="expression" priority="53" dxfId="0">
       <formula>LOWER(AD2)="si"</formula>
     </cfRule>
@@ -8184,7 +11880,7 @@
       <formula>LOWER(AD2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE154">
+  <conditionalFormatting sqref="AE2:AE231">
     <cfRule type="expression" priority="55" dxfId="0">
       <formula>LOWER(AE2)="si"</formula>
     </cfRule>
@@ -8192,7 +11888,7 @@
       <formula>LOWER(AE2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF154">
+  <conditionalFormatting sqref="AF2:AF231">
     <cfRule type="expression" priority="57" dxfId="0">
       <formula>LOWER(AF2)="si"</formula>
     </cfRule>
@@ -8200,7 +11896,7 @@
       <formula>LOWER(AF2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG154">
+  <conditionalFormatting sqref="AG2:AG231">
     <cfRule type="expression" priority="59" dxfId="0">
       <formula>LOWER(AG2)="si"</formula>
     </cfRule>
@@ -8208,7 +11904,7 @@
       <formula>LOWER(AG2)="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH154">
+  <conditionalFormatting sqref="AH2:AH231">
     <cfRule type="expression" priority="61" dxfId="0">
       <formula>LOWER(AH2)="si"</formula>
     </cfRule>
